--- a/4_classification&evaluation/output/meta_subclasses/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/meta_subclasses/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.008607101440429688</v>
+        <v>0.01449599266052246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01724686622619629</v>
+        <v>0.03331928253173828</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001569986343383789</v>
+        <v>0.002972698211669922</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02536740303039551</v>
+        <v>0.01921453475952149</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002261829376220703</v>
+        <v>0.002491474151611328</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02320928573608399</v>
+        <v>0.02681756019592285</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007030534744262695</v>
+        <v>0.005090665817260742</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1138636112213135</v>
+        <v>0.1278950214385986</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004757976531982422</v>
+        <v>0.008940410614013673</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03050298690795899</v>
+        <v>0.02933816909790039</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004683971405029297</v>
+        <v>0.00439305305480957</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0227839469909668</v>
+        <v>0.02511696815490723</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01195626258850098</v>
+        <v>0.005902862548828125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01834344863891602</v>
+        <v>0.01815061569213867</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005727815628051758</v>
+        <v>0.004581928253173828</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01261172294616699</v>
+        <v>0.01521816253662109</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003986120223999023</v>
+        <v>0.007916784286499024</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01246495246887207</v>
+        <v>0.01269001960754395</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009467887878417968</v>
+        <v>0.012579345703125</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02164521217346192</v>
+        <v>0.02421746253967285</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01060967445373535</v>
+        <v>0.008797836303710938</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01877288818359375</v>
+        <v>0.02429766654968262</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006033086776733398</v>
+        <v>0.008335208892822266</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01618714332580566</v>
+        <v>0.01975979804992676</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800638198852539</v>
+        <v>0.01591005325317383</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01849274635314941</v>
+        <v>0.02801060676574707</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008449745178222657</v>
+        <v>0.01638326644897461</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01428813934326172</v>
+        <v>0.03671183586120606</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004675483703613282</v>
+        <v>0.01488223075866699</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01935214996337891</v>
+        <v>0.03398809432983398</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00968017578125</v>
+        <v>0.02066965103149414</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02153468132019043</v>
+        <v>0.03366847038269043</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01100316047668457</v>
+        <v>0.01197209358215332</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01820530891418457</v>
+        <v>0.02116913795471191</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002672815322875977</v>
+        <v>0.004584217071533203</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01986188888549805</v>
+        <v>0.01837635040283203</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01097679138183594</v>
+        <v>0.009705448150634765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01886520385742187</v>
+        <v>0.02022037506103515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00937337875366211</v>
+        <v>0.01128020286560059</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01836581230163574</v>
+        <v>0.01858878135681152</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008021688461303711</v>
+        <v>0.01017975807189941</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02113051414489746</v>
+        <v>0.02080850601196289</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008089447021484375</v>
+        <v>0.00831756591796875</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01939382553100586</v>
+        <v>0.02153096199035644</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03626575469970703</v>
+        <v>0.03844566345214843</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03360219001770019</v>
+        <v>0.03099164962768555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02461915016174316</v>
+        <v>0.02246980667114258</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02497391700744629</v>
+        <v>0.02287020683288574</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01915903091430664</v>
+        <v>0.02323465347290039</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02032904624938965</v>
+        <v>0.02307519912719726</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04640231132507324</v>
+        <v>0.03877906799316407</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02831120491027832</v>
+        <v>0.03765926361083984</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0373042106628418</v>
+        <v>0.03306832313537598</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03243622779846191</v>
+        <v>0.03051161766052246</v>
       </c>
       <c r="L6" t="n">
-        <v>0.017132568359375</v>
+        <v>0.02558016777038574</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02000179290771485</v>
+        <v>0.02948288917541504</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/meta_subclasses/evaluation_time.xlsx
+++ b/4_classification&evaluation/output/meta_subclasses/evaluation_time.xlsx
@@ -502,40 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01449599266052246</v>
+        <v>0.003206777572631836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03331928253173828</v>
+        <v>0.01364140510559082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002972698211669922</v>
+        <v>0.002009677886962891</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01921453475952149</v>
+        <v>0.009505367279052735</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002491474151611328</v>
+        <v>0.002011299133300781</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02681756019592285</v>
+        <v>0.008799409866333008</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005090665817260742</v>
+        <v>0.003192949295043945</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1278950214385986</v>
+        <v>0.05536923408508301</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008940410614013673</v>
+        <v>0.002994108200073242</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02933816909790039</v>
+        <v>0.01307592391967773</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00439305305480957</v>
+        <v>0.001986837387084961</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02511696815490723</v>
+        <v>0.01120638847351074</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005902862548828125</v>
+        <v>0.004786396026611328</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01815061569213867</v>
+        <v>0.009506940841674805</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004581928253173828</v>
+        <v>0.002593612670898437</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01521816253662109</v>
+        <v>0.007008838653564453</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007916784286499024</v>
+        <v>0.002210474014282226</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01269001960754395</v>
+        <v>0.006648778915405273</v>
       </c>
       <c r="H3" t="n">
-        <v>0.012579345703125</v>
+        <v>0.004607248306274414</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02421746253967285</v>
+        <v>0.008445501327514648</v>
       </c>
       <c r="J3" t="n">
-        <v>0.008797836303710938</v>
+        <v>0.003815269470214844</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02429766654968262</v>
+        <v>0.008591890335083008</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008335208892822266</v>
+        <v>0.00279836654663086</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01975979804992676</v>
+        <v>0.006981229782104493</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01591005325317383</v>
+        <v>0.004799222946166993</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02801060676574707</v>
+        <v>0.008528375625610351</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01638326644897461</v>
+        <v>0.003587770462036133</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03671183586120606</v>
+        <v>0.007804679870605469</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01488223075866699</v>
+        <v>0.002787590026855469</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03398809432983398</v>
+        <v>0.007365036010742188</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02066965103149414</v>
+        <v>0.004198884963989258</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03366847038269043</v>
+        <v>0.008708524703979491</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01197209358215332</v>
+        <v>0.004718685150146484</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02116913795471191</v>
+        <v>0.008786964416503906</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004584217071533203</v>
+        <v>0.002201557159423828</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01837635040283203</v>
+        <v>0.006751203536987304</v>
       </c>
     </row>
     <row r="5">
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.009705448150634765</v>
+        <v>0.004417228698730469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02022037506103515</v>
+        <v>0.008447790145874023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01128020286560059</v>
+        <v>0.002785968780517578</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01858878135681152</v>
+        <v>0.007803583145141601</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01017975807189941</v>
+        <v>0.004791355133056641</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02080850601196289</v>
+        <v>0.009067296981811523</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00831756591796875</v>
+        <v>0.003607368469238281</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02153096199035644</v>
+        <v>0.008164691925048827</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -674,40 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03844566345214843</v>
+        <v>0.01899828910827637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03099164962768555</v>
+        <v>0.01659345626831055</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02246980667114258</v>
+        <v>0.01160740852355957</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02287020683288574</v>
+        <v>0.01233224868774414</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02323465347290039</v>
+        <v>0.009791564941406251</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02307519912719726</v>
+        <v>0.01162500381469727</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03877906799316407</v>
+        <v>0.01860661506652832</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03765926361083984</v>
+        <v>0.01905021667480469</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03306832313537598</v>
+        <v>0.01762595176696777</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03051161766052246</v>
+        <v>0.01829848289489746</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02558016777038574</v>
+        <v>0.009198760986328125</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02948288917541504</v>
+        <v>0.01219363212585449</v>
       </c>
     </row>
   </sheetData>
